--- a/RUDN/Importance/Varible_muatal_reg_in_Eastern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Eastern Europe.xlsx
@@ -22,12 +22,12 @@
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
@@ -43,12 +43,12 @@
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Male population 80+</t>
   </si>
   <si>
@@ -106,46 +106,58 @@
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
     <t>Improved water source, rural (% of rural population with access)</t>
@@ -154,78 +166,66 @@
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
@@ -241,87 +241,87 @@
     <t>Age dependency ratio, old</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Male population 55-59</t>
   </si>
   <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
   </si>
   <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
@@ -337,6 +337,9 @@
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
@@ -358,39 +361,36 @@
     <t>Female population 55-59</t>
   </si>
   <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 20-24, female (% of female population)</t>
   </si>
   <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
     <t>Male population 00-04</t>
   </si>
   <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
     <t>Net ODA provided, total (constant 2015 US$)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
@@ -403,42 +403,45 @@
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Population ages 45-49, female (% of female population)</t>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
@@ -448,9 +451,6 @@
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
@@ -487,19 +487,28 @@
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
+    <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
@@ -532,9 +541,6 @@
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
@@ -556,9 +562,6 @@
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
@@ -571,33 +574,30 @@
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
     <t>Labor force, female</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
@@ -619,60 +619,63 @@
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
+    <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
   </si>
   <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
     <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
@@ -682,12 +685,12 @@
     <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
@@ -703,133 +706,133 @@
     <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
     <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
   </si>
   <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Urban population</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Self-employed, male (% of male employment)</t>
   </si>
   <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
     <t>Self-employed, total (% of total employment)</t>
   </si>
   <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+    <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
@@ -841,28 +844,40 @@
     <t>Rural population</t>
   </si>
   <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
@@ -871,42 +886,27 @@
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
@@ -928,21 +928,21 @@
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
@@ -1003,105 +1003,108 @@
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
@@ -1126,30 +1129,27 @@
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
@@ -1174,21 +1174,24 @@
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
@@ -1204,12 +1207,12 @@
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
@@ -1234,21 +1237,18 @@
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
@@ -1261,12 +1261,12 @@
     <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
@@ -1276,12 +1276,12 @@
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
@@ -1291,54 +1291,54 @@
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
     <t>GINI index (World Bank estimate)</t>
   </si>
   <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
+    <t>Age at first marriage, male</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
   </si>
   <si>
-    <t>Age at first marriage, male</t>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
@@ -1348,10 +1348,10 @@
     <t>Educational attainment, some primary, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
     <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
   </si>
   <si>
     <t>Income share held by lowest 20%</t>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.792846771814331</v>
+        <v>1.791885233352792</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.787358950928529</v>
+        <v>1.78463459195417</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.775201504795183</v>
+        <v>1.769422587383284</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.771826433537131</v>
+        <v>1.768948863206003</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.266763809073861</v>
+        <v>1.250673338871549</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.132464661839094</v>
+        <v>1.130541584916018</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.098301055856564</v>
+        <v>1.094031181287666</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.080482852367373</v>
+        <v>1.075886409392893</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.074131298547492</v>
+        <v>1.075169594490679</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049991094634406</v>
+        <v>1.067289278272249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.040095078241511</v>
+        <v>1.049029556172867</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.039409773411269</v>
+        <v>1.040478149479645</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.010901943044626</v>
+        <v>1.010223282145008</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9900616376612494</v>
+        <v>0.9876577915074032</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9825952075757964</v>
+        <v>0.9826524758612143</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9612831842338712</v>
+        <v>0.9624851073107945</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.939041318678147</v>
+        <v>0.9402165323533604</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9348948398584995</v>
+        <v>0.9372986860123453</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9314725243663011</v>
+        <v>0.9317638996576767</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9256899149711089</v>
+        <v>0.9250031017842959</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9084157774676198</v>
+        <v>0.9090568031086455</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.8882762580509209</v>
+        <v>0.8976197643060058</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.8827759601209975</v>
+        <v>0.8843905494289395</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8730558766066938</v>
+        <v>0.8744981842990014</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.8520399586030583</v>
+        <v>0.8534608870575839</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.8479663815630785</v>
+        <v>0.8447707884090496</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8461444147826764</v>
+        <v>0.8423140438087144</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8368629868941961</v>
+        <v>0.8350574248760241</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.8336837985023973</v>
+        <v>0.8336168979949521</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8336168979949521</v>
+        <v>0.8322515612123114</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.8322515612123114</v>
+        <v>0.8298464379230492</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.8317695148461262</v>
+        <v>0.8292728382747843</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.8282044622064082</v>
+        <v>0.8203367709004987</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.8203367709004987</v>
+        <v>0.8190214374811289</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8179530614127528</v>
+        <v>0.8171698936073151</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.8150036988231832</v>
+        <v>0.8105884297318009</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8140623678383117</v>
+        <v>0.8067712085365049</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.8127802106432078</v>
+        <v>0.8021849480676542</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.8092790281341209</v>
+        <v>0.8001215376940933</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.8070011005384861</v>
+        <v>0.8000059362242431</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8048576400128105</v>
+        <v>0.798227721657627</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8021849480676542</v>
+        <v>0.798093263672738</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.800765477398202</v>
+        <v>0.7977389484350192</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8001215376940933</v>
+        <v>0.7970652780429233</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.798227721657627</v>
+        <v>0.790204152377707</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.790204152377707</v>
+        <v>0.7891007467569842</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7891007467569842</v>
+        <v>0.7878539976412862</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7874470198495225</v>
+        <v>0.7878539976412862</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7867856215729101</v>
+        <v>0.7874470198495225</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.7867856215729101</v>
+        <v>0.7858875447503495</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7830114712828635</v>
+        <v>0.7827922143160131</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7827922143160131</v>
+        <v>0.7817226647983593</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.7817226647983593</v>
+        <v>0.7800198849134605</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7730023606091525</v>
+        <v>0.776031915623177</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7722244548315542</v>
+        <v>0.7730023606091525</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7708915166061525</v>
+        <v>0.7722244548315542</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7694249268882116</v>
+        <v>0.7717050974868975</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7694203358775389</v>
+        <v>0.7708915166061525</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7689047439951571</v>
+        <v>0.7694249268882116</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7550641201681243</v>
+        <v>0.7541025817065856</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7534157391197205</v>
+        <v>0.7535845013797515</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7525161253113752</v>
+        <v>0.752687300891282</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7474753549409447</v>
+        <v>0.7455522780178678</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7383493689298404</v>
+        <v>0.7360096529242248</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7360096529242248</v>
+        <v>0.7352633861738647</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7314815249843845</v>
+        <v>0.7319088754117349</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7176083090439449</v>
+        <v>0.7220937283231326</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.717557745664372</v>
+        <v>0.7173548335106732</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7173548335106732</v>
+        <v>0.7170500054839823</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7170500054839823</v>
+        <v>0.7158054244285603</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7164847539641577</v>
+        <v>0.7156346687412951</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7106652905388686</v>
+        <v>0.710070975432697</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.710070975432697</v>
+        <v>0.7100011059015601</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7082917041921584</v>
+        <v>0.7071832541527505</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7071832541527505</v>
+        <v>0.7029578313787144</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.701034754455637</v>
+        <v>0.700706533106451</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.700706533106451</v>
+        <v>0.6996952944506885</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6996952944506885</v>
+        <v>0.6995004623320722</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6995004623320722</v>
+        <v>0.6994563794241944</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6994563794241944</v>
+        <v>0.697740698683484</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6982923058927</v>
+        <v>0.6951383402145388</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6957447918233295</v>
+        <v>0.6922572515158347</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6922572515158347</v>
+        <v>0.6898560558855231</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6898560558855231</v>
+        <v>0.6882122039850258</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6882122039850258</v>
+        <v>0.6866020019171011</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6866020019171011</v>
+        <v>0.6861969959060108</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6847363016031154</v>
+        <v>0.6808014790747072</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6729475434537173</v>
+        <v>0.6721462614024354</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6701746433168063</v>
+        <v>0.6709332639605248</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6697920998110767</v>
+        <v>0.6701746433168063</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6697201982693948</v>
+        <v>0.6697920998110767</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.6685892834221869</v>
+        <v>0.6697201982693948</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6682600357427768</v>
+        <v>0.6685892834221869</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6668103930433045</v>
+        <v>0.6682600357427768</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6651407990602269</v>
+        <v>0.6663303664264744</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.66242714912301</v>
+        <v>0.66321772213715</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6623545605104273</v>
+        <v>0.6632039688026565</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6621355927342805</v>
+        <v>0.66242714912301</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.6620433067545968</v>
+        <v>0.6623545605104273</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6615236480380258</v>
+        <v>0.6620433067545968</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.6612743326618051</v>
+        <v>0.6556516977591533</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.6567762860843611</v>
+        <v>0.6555262805864781</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.6556516977591533</v>
+        <v>0.6554415779410196</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6555262805864781</v>
+        <v>0.6552718899484757</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.6554415779410196</v>
+        <v>0.6549668452198354</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6552718899484757</v>
+        <v>0.6527455833946398</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.6455530654597426</v>
+        <v>0.6459810682754372</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6455440053383743</v>
+        <v>0.6449120398187165</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.6422227987060416</v>
+        <v>0.641581773065016</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6399102112862227</v>
+        <v>0.638536191003404</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.6392758359738182</v>
+        <v>0.6383076471836588</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.6388994539112516</v>
+        <v>0.6379130748747821</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.6379130748747821</v>
+        <v>0.6375324896934691</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6375324896934691</v>
+        <v>0.6370437229555872</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.6370437229555872</v>
+        <v>0.6362754478217791</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.6362754478217791</v>
+        <v>0.6354843166036561</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.6354843166036561</v>
+        <v>0.6338464709581819</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.6306387825116362</v>
+        <v>0.6319156246170503</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.6288016379495016</v>
+        <v>0.6298991375412224</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.6287081472801226</v>
+        <v>0.6288016379495016</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.6275770722419214</v>
+        <v>0.6287081472801226</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.624403917602927</v>
+        <v>0.6254722936713031</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.6228703411699428</v>
+        <v>0.6228245536241555</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.6060423643662998</v>
+        <v>0.6059857285873917</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.6009496188174479</v>
+        <v>0.6050424153604195</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.6008991239223345</v>
+        <v>0.603481301544214</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5989678993098635</v>
+        <v>0.6008991239223345</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5972494695621484</v>
+        <v>0.6000362753782396</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.5965939392986377</v>
+        <v>0.5977425662090918</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.589839676222476</v>
+        <v>0.5965939392986377</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5816604413024613</v>
+        <v>0.5904424021203272</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5815308920557312</v>
+        <v>0.5901977513423349</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5794830161630886</v>
+        <v>0.589839676222476</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.5792646839068696</v>
+        <v>0.5816604413024613</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5786734059865621</v>
+        <v>0.5815308920557312</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.5756190898678797</v>
+        <v>0.5794830161630886</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5748379188693502</v>
+        <v>0.5792646839068696</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5742248802525645</v>
+        <v>0.5786734059865621</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5730877756598995</v>
+        <v>0.5756190898678797</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5721150724559987</v>
+        <v>0.5748379188693502</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5711823403293355</v>
+        <v>0.5742248802525645</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5708049666275872</v>
+        <v>0.5730877756598995</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5706530169709079</v>
+        <v>0.5711823403293355</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5694195939727118</v>
+        <v>0.5708049666275872</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5686819717599749</v>
+        <v>0.5706530169709079</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5681930010938352</v>
+        <v>0.5694195939727118</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5678111271878514</v>
+        <v>0.5686819717599749</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.56623299852897</v>
+        <v>0.5681930010938352</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.5657058852930048</v>
+        <v>0.5678111271878514</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5656577344644231</v>
+        <v>0.5657058852930048</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5655356892677168</v>
+        <v>0.5656577344644231</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5648470322761088</v>
+        <v>0.5655356892677168</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5600258564635943</v>
+        <v>0.5648470322761088</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5594828440303556</v>
+        <v>0.5612127672043994</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5588089210505531</v>
+        <v>0.5600258564635943</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5576791506011247</v>
+        <v>0.5594828440303556</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5576243785497579</v>
+        <v>0.5576791506011247</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5566218761793356</v>
+        <v>0.5564346131984963</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5564346131984963</v>
+        <v>0.5557545582047012</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.5557545582047012</v>
+        <v>0.5549367760121164</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.5496243806210965</v>
+        <v>0.5506927566894722</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.5436866246088217</v>
+        <v>0.5435017133662172</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.543327829949412</v>
+        <v>0.5431189909426311</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.5431189909426311</v>
+        <v>0.5426380247622322</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.5426380247622322</v>
+        <v>0.5422594538810364</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.5410892994334515</v>
+        <v>0.5418220878504474</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5398990109273705</v>
+        <v>0.5410892994334515</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.531294833908333</v>
+        <v>0.5315213345397409</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.5312940436625486</v>
+        <v>0.531294833908333</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.5312299592483654</v>
+        <v>0.5307388820333649</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5307388820333649</v>
+        <v>0.5302972206166396</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.5302972206166396</v>
+        <v>0.5300483544918966</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.5300483544918966</v>
+        <v>0.5293319949581001</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.5293319949581001</v>
+        <v>0.5290941311371555</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.5261560042821096</v>
+        <v>0.5271096341248285</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.526102390174036</v>
+        <v>0.5261560042821096</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5206964838894721</v>
+        <v>0.5220348985534695</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.5199354710611481</v>
+        <v>0.5206964838894721</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5191832148506825</v>
+        <v>0.5202038430400466</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.5190059818627453</v>
+        <v>0.5198642167737448</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5147167705802422</v>
+        <v>0.5150233019769397</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.5144210276137302</v>
+        <v>0.5149838645973368</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.5141023207475397</v>
+        <v>0.5144210276137302</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.5138143718433867</v>
+        <v>0.5141023207475397</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.5131259086321784</v>
+        <v>0.5138143718433867</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.5123437279557823</v>
+        <v>0.5134121040241588</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.5115826068659328</v>
+        <v>0.508201423691963</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.509889226816258</v>
+        <v>0.5078837240087823</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.5074450605088661</v>
+        <v>0.5077364530197792</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.5066351671240104</v>
+        <v>0.5074450605088661</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.5065226987053615</v>
+        <v>0.5072931735076891</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5035568009318592</v>
+        <v>0.5069022611411036</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.5029662504307659</v>
+        <v>0.5065226987053615</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.5014258115711892</v>
+        <v>0.5028699210526431</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.5000994709802753</v>
+        <v>0.5020225479033522</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4997791279613786</v>
+        <v>0.5014258115711892</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.4985429979757199</v>
+        <v>0.5001586181079636</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4972482691412061</v>
+        <v>0.4997791279613786</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4960640349127114</v>
+        <v>0.4972482691412061</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.496031238599457</v>
+        <v>0.4964855331836311</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4958316950310404</v>
+        <v>0.4963444875956116</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4954363679374914</v>
+        <v>0.4960640349127114</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4933650866998514</v>
+        <v>0.4949108468229506</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4921586101067079</v>
+        <v>0.4938677770609954</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4905839237460274</v>
+        <v>0.4933650866998514</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4885086472720541</v>
+        <v>0.4884212346846417</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4810044315277497</v>
+        <v>0.4853313546046729</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4788011771021987</v>
+        <v>0.4791420084584999</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4769616400757142</v>
+        <v>0.4788011771021987</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.4748150853815767</v>
+        <v>0.4769616400757142</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4708292313109048</v>
+        <v>0.4687993167809901</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.4684953246186621</v>
+        <v>0.4684004956425523</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.4684004956425523</v>
+        <v>0.4677556796482483</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.458937228831596</v>
+        <v>0.4607974899887306</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.4564705669118074</v>
+        <v>0.458937228831596</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.4562553035286459</v>
+        <v>0.4580986081270619</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.4551231046018365</v>
+        <v>0.4576849953753361</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.4537716850501388</v>
+        <v>0.4551231046018365</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.453358072298413</v>
+        <v>0.4542477585574816</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.4499208354805584</v>
+        <v>0.4492093183515373</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.4460041901464096</v>
+        <v>0.4451723075772289</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.4414818541112209</v>
+        <v>0.4431433704002972</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.438816447323374</v>
+        <v>0.4414818541112209</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.4370461993637704</v>
+        <v>0.4404472948143794</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.4365477221648066</v>
+        <v>0.4370461993637704</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.434642873870045</v>
+        <v>0.4359725377348651</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.4327923110233991</v>
+        <v>0.4328800533572239</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.4307354167525907</v>
+        <v>0.4327923110233991</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4287093341149086</v>
+        <v>0.4307354167525907</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4286113117103743</v>
+        <v>0.4290137707441324</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.426337504786843</v>
+        <v>0.4286113117103743</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.4254064588316258</v>
+        <v>0.426337504786843</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.4114085785886701</v>
+        <v>0.4124972166750678</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.4059134275979783</v>
+        <v>0.4114085785886701</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.4052818374816005</v>
+        <v>0.4114034341117776</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4022377045115397</v>
+        <v>0.4047041667733322</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4005503361487623</v>
+        <v>0.4012725212435402</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.398622415141209</v>
+        <v>0.3998181857612608</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.3981170023293079</v>
+        <v>0.398622415141209</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.3925601055479584</v>
+        <v>0.3959439887991332</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3903918927800669</v>
+        <v>0.3954864504062983</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3851601792807906</v>
+        <v>0.3903918927800669</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3851544501732986</v>
+        <v>0.3839225898456917</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.3839225898456917</v>
+        <v>0.3836740470913464</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.3836740470913464</v>
+        <v>0.3796324072909099</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.3787678121869751</v>
+        <v>0.3795816881847864</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.3783736010471817</v>
+        <v>0.3779930407380965</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3749539923681655</v>
+        <v>0.3766897210124438</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.3708355017096054</v>
+        <v>0.3715276436194195</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.3653066134433147</v>
+        <v>0.3647571628938637</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3597024469769541</v>
+        <v>0.3596757375752451</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3593018059513136</v>
+        <v>0.3596757375752451</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3392615289904926</v>
+        <v>0.3380571376495161</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3364923189112734</v>
+        <v>0.3368576828366463</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.3313303454049681</v>
+        <v>0.3303688069434298</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3256277630008477</v>
+        <v>0.327188702061787</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.3224785910075476</v>
+        <v>0.3226846349635917</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.3212974295272117</v>
+        <v>0.3215628743656975</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3211332596603358</v>
+        <v>0.321138553459565</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.3012746194430829</v>
+        <v>0.300974138673852</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2903296485695863</v>
+        <v>0.2909528679428064</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2874158717140136</v>
+        <v>0.2792568288582065</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2834104501729033</v>
+        <v>0.2791522519764631</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2814626335256165</v>
+        <v>0.2785472447834367</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2792568288582065</v>
+        <v>0.2757729576291341</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2782781261023377</v>
+        <v>0.2754563258345648</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.2757729576291341</v>
+        <v>0.2705889486370907</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2689302473822059</v>
+        <v>0.2695442167461755</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2689302473822059</v>
+        <v>0.2695442167461755</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2678440109346059</v>
+        <v>0.2672205478877334</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2672205478877334</v>
+        <v>0.2660158780043194</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2660158780043194</v>
+        <v>0.2647295742111084</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2647295742111084</v>
+        <v>0.2645540879537354</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2578630331718923</v>
+        <v>0.2583438024026616</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2504157898866355</v>
+        <v>0.2502981027927556</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2502981027927556</v>
+        <v>0.249626350732183</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.249626350732183</v>
+        <v>0.2481444459661133</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2481444459661133</v>
+        <v>0.2429723311888299</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2432728119580607</v>
+        <v>0.2427294609906281</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2413979610263097</v>
+        <v>0.2426743314139899</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2410701744283228</v>
+        <v>0.2423567671976223</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2410042555282392</v>
+        <v>0.2410701744283228</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2406815224871328</v>
+        <v>0.2410042555282392</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2380115945652259</v>
+        <v>0.2406815224871328</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2368920029423662</v>
+        <v>0.2388477149665633</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2368457277805212</v>
+        <v>0.2368920029423662</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2354397223190356</v>
+        <v>0.2368457277805212</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2274974639320124</v>
+        <v>0.2291122118613051</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.2217540223792176</v>
+        <v>0.2239692627251892</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.217223279215329</v>
+        <v>0.2153990883643691</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.2146717708101284</v>
+        <v>0.2146476049979322</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.208364170404854</v>
+        <v>0.207146875881256</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.203639998846473</v>
+        <v>0.2062396392108949</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.2035175655582342</v>
+        <v>0.2033458622615307</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1971672609472745</v>
+        <v>0.1961000893473892</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1921531685976876</v>
+        <v>0.1913977941124112</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1913977941124112</v>
+        <v>0.1909301566259261</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1909301566259261</v>
+        <v>0.1902300916746109</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1866322414161361</v>
+        <v>0.1893276456101165</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1859697342934019</v>
+        <v>0.1866322414161361</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1848005786462714</v>
+        <v>0.1859697342934019</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1836438885392273</v>
+        <v>0.1848005786462714</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1829616002182968</v>
+        <v>0.1836438885392273</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.180727062529487</v>
+        <v>0.1829616002182968</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1797990031503116</v>
+        <v>0.180727062529487</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1772768941089831</v>
+        <v>0.1801618478527787</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1744838538159426</v>
+        <v>0.1772768941089831</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1732551800567355</v>
+        <v>0.1744838538159426</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1720937892580567</v>
+        <v>0.1732551800567355</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1711994340072005</v>
+        <v>0.1720937892580567</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1704466631616293</v>
+        <v>0.1711994340072005</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1698700105742017</v>
+        <v>0.1704466631616293</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1654856028657439</v>
+        <v>0.1698700105742017</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1627987778657753</v>
+        <v>0.1651857943743404</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.1526104926163099</v>
+        <v>0.1593733134334312</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1485059876333099</v>
+        <v>0.1481135229551307</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.1476838468709383</v>
+        <v>0.1466379609073274</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.1466379609073274</v>
+        <v>0.1463322371141567</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.1465069204220564</v>
+        <v>0.1451803937561627</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.140656047147975</v>
+        <v>0.1408695024122044</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.1405379374254669</v>
+        <v>0.140656047147975</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.1231363004392865</v>
+        <v>0.1249383010133491</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1229974638393201</v>
+        <v>0.1231363004392865</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.1171479900210304</v>
+        <v>0.1169970395087334</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1164785613708108</v>
+        <v>0.115810979522138</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.115810979522138</v>
+        <v>0.1154036844648167</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.1144042511123857</v>
+        <v>0.1124441874994433</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.1124441874994433</v>
+        <v>0.1116203538189313</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.1123599987893455</v>
+        <v>0.1112271427034803</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1065601535453555</v>
+        <v>0.1016674051558006</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.1016674051558006</v>
+        <v>0.1008855736662009</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.1008855736662009</v>
+        <v>0.1004360761730241</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.09035784934495461</v>
+        <v>0.09133234029704274</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.08595353555803142</v>
+        <v>0.0881822723864587</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.08208163299532512</v>
+        <v>0.08098183410140791</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.05861391411764405</v>
+        <v>0.05898809836914509</v>
       </c>
     </row>
     <row r="457" spans="1:2">
